--- a/data/trans_orig/P6701-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1BB762-2D50-4BE2-8108-96074D11DF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{024BABA8-8C43-4D18-B312-37188403D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD08B3D8-C19E-4652-A75C-45DBE28B9E8A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D52229B5-52AD-4F80-B88F-9BD67FDC0BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="800">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>10,32%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,28 +106,28 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>29,64%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -166,2302 +166,2278 @@
     <t>25,84%</t>
   </si>
   <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>15,5%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>20,81%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>16,18%</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A3B3EB-B279-4928-BC03-EF389221ACD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F2614-F58F-48FD-BED2-0B3E9494DF95}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3542,10 +3518,10 @@
         <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3613,13 +3589,13 @@
         <v>35297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3628,13 +3604,13 @@
         <v>37434</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3643,13 +3619,13 @@
         <v>72731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3640,13 @@
         <v>51614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3679,13 +3655,13 @@
         <v>26131</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -3694,13 +3670,13 @@
         <v>77745</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3691,13 @@
         <v>168743</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -3730,13 +3706,13 @@
         <v>98432</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -3745,13 +3721,13 @@
         <v>267174</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3742,13 @@
         <v>97882</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -3781,13 +3757,13 @@
         <v>55859</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -3796,13 +3772,13 @@
         <v>153741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3793,13 @@
         <v>72617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -3832,13 +3808,13 @@
         <v>67962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -3847,13 +3823,13 @@
         <v>140579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,7 +3885,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3921,13 +3897,13 @@
         <v>36825</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3936,13 +3912,13 @@
         <v>26940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3951,13 +3927,13 @@
         <v>63765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3948,13 @@
         <v>37212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -3987,13 +3963,13 @@
         <v>37071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -4002,13 +3978,13 @@
         <v>74283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +3999,13 @@
         <v>144191</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
@@ -4038,13 +4014,13 @@
         <v>81173</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -4053,13 +4029,13 @@
         <v>225364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4050,13 @@
         <v>91665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -4089,13 +4065,13 @@
         <v>45923</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -4104,13 +4080,13 @@
         <v>137588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4101,13 @@
         <v>57770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -4140,13 +4116,13 @@
         <v>34233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -4155,13 +4131,13 @@
         <v>92003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,7 +4193,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4229,13 +4205,13 @@
         <v>11493</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4244,13 +4220,13 @@
         <v>8197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -4259,13 +4235,13 @@
         <v>19690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4256,13 @@
         <v>18029</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4295,13 +4271,13 @@
         <v>7489</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -4310,13 +4286,13 @@
         <v>25518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4307,13 @@
         <v>60697</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -4346,13 +4322,13 @@
         <v>19834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -4361,13 +4337,13 @@
         <v>80531</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4358,13 @@
         <v>38498</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -4397,13 +4373,13 @@
         <v>20940</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -4412,13 +4388,13 @@
         <v>59438</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4409,13 @@
         <v>28633</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -4448,13 +4424,13 @@
         <v>13232</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4463,13 +4439,13 @@
         <v>41865</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4501,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4537,13 +4513,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4552,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4567,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4564,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4603,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4618,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,10 +4615,10 @@
         <v>3016</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>60</v>
@@ -4654,13 +4630,13 @@
         <v>1857</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -4669,13 +4645,13 @@
         <v>4873</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4705,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4720,13 +4696,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4756,13 +4732,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4771,13 +4747,13 @@
         <v>981</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4821,13 @@
         <v>126379</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H40" s="7">
         <v>103</v>
@@ -4860,13 +4836,13 @@
         <v>114595</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
         <v>219</v>
@@ -4875,13 +4851,13 @@
         <v>240974</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4872,13 @@
         <v>152166</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -4911,13 +4887,13 @@
         <v>106567</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M41" s="7">
         <v>239</v>
@@ -4926,13 +4902,13 @@
         <v>258733</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4923,13 @@
         <v>537014</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H42" s="7">
         <v>301</v>
@@ -4962,13 +4938,13 @@
         <v>325493</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M42" s="7">
         <v>808</v>
@@ -4977,13 +4953,13 @@
         <v>862506</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4974,13 @@
         <v>339361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -5013,13 +4989,13 @@
         <v>207347</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="M43" s="7">
         <v>509</v>
@@ -5028,13 +5004,13 @@
         <v>546709</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5025,13 @@
         <v>265785</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>182</v>
@@ -5064,13 +5040,13 @@
         <v>194678</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>435</v>
@@ -5079,13 +5055,13 @@
         <v>460462</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5117,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5163,7 +5139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140E49A-31E8-42A6-979E-1AECE818BFD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715C1FAC-0760-41CA-A5D9-BC2E5CBB3502}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5180,7 +5156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5287,13 +5263,13 @@
         <v>4173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5302,13 +5278,13 @@
         <v>6522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5317,13 +5293,13 @@
         <v>10695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5314,13 @@
         <v>10322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5353,13 +5329,13 @@
         <v>13453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5368,13 +5344,13 @@
         <v>23775</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5365,13 @@
         <v>25435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -5404,13 +5380,13 @@
         <v>30754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5419,13 +5395,13 @@
         <v>56188</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5416,13 @@
         <v>25825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5455,13 +5431,13 @@
         <v>22445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5470,13 +5446,13 @@
         <v>48270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5467,13 @@
         <v>13354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5506,13 +5482,13 @@
         <v>18681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -5521,13 +5497,13 @@
         <v>32036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5571,13 @@
         <v>21128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5610,13 +5586,13 @@
         <v>21635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5625,13 +5601,13 @@
         <v>42763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5622,13 @@
         <v>34802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -5661,13 +5637,13 @@
         <v>34418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -5676,13 +5652,13 @@
         <v>69220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5673,13 @@
         <v>110405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -5712,13 +5688,13 @@
         <v>107061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>215</v>
@@ -5727,13 +5703,13 @@
         <v>217467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5724,13 @@
         <v>103681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5763,13 +5739,13 @@
         <v>68782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -5778,13 +5754,13 @@
         <v>172464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5775,13 @@
         <v>74168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5814,13 +5790,13 @@
         <v>41820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -5829,13 +5805,13 @@
         <v>115988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5867,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5903,13 +5879,13 @@
         <v>29307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5918,13 +5894,13 @@
         <v>23880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -5933,13 +5909,13 @@
         <v>53187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +5930,13 @@
         <v>54525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5969,13 +5945,13 @@
         <v>46211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5984,13 +5960,13 @@
         <v>100736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +5981,13 @@
         <v>167989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>116</v>
@@ -6020,13 +5996,13 @@
         <v>113904</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
         <v>275</v>
@@ -6035,13 +6011,13 @@
         <v>281894</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6032,13 @@
         <v>133095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6071,13 +6047,13 @@
         <v>75520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6086,13 +6062,13 @@
         <v>208615</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6083,13 @@
         <v>74672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -6122,13 +6098,13 @@
         <v>57898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -6137,13 +6113,13 @@
         <v>132570</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,7 +6175,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6211,13 +6187,13 @@
         <v>31842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6226,13 +6202,13 @@
         <v>16530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6241,13 +6217,13 @@
         <v>48372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6238,13 @@
         <v>48187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -6277,13 +6253,13 @@
         <v>23214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -6292,13 +6268,13 @@
         <v>71401</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6289,13 @@
         <v>134368</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -6328,13 +6304,13 @@
         <v>100793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M24" s="7">
         <v>219</v>
@@ -6343,13 +6319,13 @@
         <v>235161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6340,13 @@
         <v>87630</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6379,13 +6355,13 @@
         <v>49673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -6394,13 +6370,13 @@
         <v>137303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6391,13 @@
         <v>65701</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -6430,13 +6406,13 @@
         <v>52909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -6445,13 +6421,13 @@
         <v>118609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,7 +6483,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6519,13 +6495,13 @@
         <v>10279</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>63</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -6534,13 +6510,13 @@
         <v>15696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -6549,13 +6525,13 @@
         <v>25975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6546,13 @@
         <v>19571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>348</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6585,13 +6561,13 @@
         <v>17831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6600,13 +6576,13 @@
         <v>37402</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>476</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6597,13 @@
         <v>64675</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -6636,13 +6612,13 @@
         <v>38500</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -6651,13 +6627,13 @@
         <v>103175</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6648,13 @@
         <v>43195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6687,13 +6663,13 @@
         <v>19578</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -6702,13 +6678,13 @@
         <v>62773</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6699,13 @@
         <v>28007</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>353</v>
+        <v>490</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -6738,13 +6714,13 @@
         <v>14274</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -6753,13 +6729,13 @@
         <v>42280</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>495</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,7 +6791,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6827,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6842,13 +6818,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6857,13 +6833,13 @@
         <v>1925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6854,13 @@
         <v>1729</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6893,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6908,13 +6884,13 @@
         <v>1729</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6905,13 @@
         <v>2182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>507</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6944,13 +6920,13 @@
         <v>2231</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -6959,13 +6935,13 @@
         <v>4413</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>113</v>
+        <v>511</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6956,13 @@
         <v>2075</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6995,13 +6971,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -7010,13 +6986,13 @@
         <v>3108</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>520</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7007,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7046,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7061,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7111,13 @@
         <v>96729</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -7150,13 +7126,13 @@
         <v>86188</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M40" s="7">
         <v>173</v>
@@ -7165,13 +7141,13 @@
         <v>182917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7162,13 @@
         <v>169136</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>533</v>
+        <v>158</v>
       </c>
       <c r="H41" s="7">
         <v>132</v>
@@ -7201,13 +7177,13 @@
         <v>135127</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M41" s="7">
         <v>292</v>
@@ -7216,13 +7192,13 @@
         <v>304263</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7213,13 @@
         <v>505054</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H42" s="7">
         <v>387</v>
@@ -7252,13 +7228,13 @@
         <v>393243</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>543</v>
+        <v>348</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M42" s="7">
         <v>860</v>
@@ -7267,13 +7243,13 @@
         <v>898297</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>545</v>
+        <v>39</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7264,13 @@
         <v>395501</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H43" s="7">
         <v>231</v>
@@ -7303,13 +7279,13 @@
         <v>237032</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M43" s="7">
         <v>604</v>
@@ -7318,13 +7294,13 @@
         <v>632534</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7315,13 @@
         <v>255902</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="H44" s="7">
         <v>177</v>
@@ -7354,13 +7330,13 @@
         <v>185582</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M44" s="7">
         <v>407</v>
@@ -7369,13 +7345,13 @@
         <v>441484</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,7 +7407,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7453,7 +7429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2299F6DC-751F-455E-8757-1D9F29297F47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED3329-CD36-468E-95E4-46F22B8DCDB7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7470,7 +7446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7577,13 +7553,13 @@
         <v>1289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7592,13 +7568,13 @@
         <v>3119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>567</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7607,13 +7583,13 @@
         <v>4408</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7604,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7643,13 +7619,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7658,13 +7634,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7655,13 @@
         <v>9030</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -7694,13 +7670,13 @@
         <v>10679</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>579</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7709,13 +7685,13 @@
         <v>19709</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>104</v>
+        <v>575</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7706,13 @@
         <v>8393</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7745,13 +7721,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>459</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -7760,13 +7736,13 @@
         <v>17463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7757,13 @@
         <v>3873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7796,13 +7772,13 @@
         <v>5715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>586</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -7811,13 +7787,13 @@
         <v>9588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>589</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7861,13 @@
         <v>12153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>596</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7900,13 +7876,13 @@
         <v>14574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>595</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -7915,13 +7891,13 @@
         <v>26727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>603</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7912,13 @@
         <v>11163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>599</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -7951,13 +7927,13 @@
         <v>13483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>607</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7966,13 +7942,13 @@
         <v>24646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7963,13 @@
         <v>36513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -8002,13 +7978,13 @@
         <v>27008</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -8017,13 +7993,13 @@
         <v>63521</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8014,13 @@
         <v>31990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -8053,13 +8029,13 @@
         <v>23001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -8068,13 +8044,13 @@
         <v>54991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>625</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>626</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8065,13 @@
         <v>18924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -8104,13 +8080,13 @@
         <v>13289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>632</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -8119,13 +8095,13 @@
         <v>32213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8157,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8193,13 +8169,13 @@
         <v>16895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>636</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -8208,13 +8184,13 @@
         <v>13907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>640</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -8223,13 +8199,13 @@
         <v>30802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>631</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8220,13 @@
         <v>17381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -8259,13 +8235,13 @@
         <v>14520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>637</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -8274,13 +8250,13 @@
         <v>31901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>538</v>
+        <v>639</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8271,13 @@
         <v>31708</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>652</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -8310,13 +8286,13 @@
         <v>26840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="M18" s="7">
         <v>72</v>
@@ -8325,13 +8301,13 @@
         <v>58549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8322,13 @@
         <v>28905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -8361,13 +8337,13 @@
         <v>24278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -8376,13 +8352,13 @@
         <v>53183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8373,13 @@
         <v>13562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>667</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>657</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -8412,13 +8388,13 @@
         <v>21127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>661</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -8427,13 +8403,13 @@
         <v>34689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>662</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8489,7 +8465,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8501,13 +8477,13 @@
         <v>80583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>673</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -8516,10 +8492,10 @@
         <v>18363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>668</v>
@@ -8531,13 +8507,13 @@
         <v>98946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>679</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8528,13 @@
         <v>16043</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>640</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>672</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -8567,13 +8543,13 @@
         <v>14359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -8582,13 +8558,13 @@
         <v>30402</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>677</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,13 +8579,13 @@
         <v>46604</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>233</v>
+        <v>679</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -8618,13 +8594,13 @@
         <v>38487</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>690</v>
+        <v>546</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -8633,13 +8609,13 @@
         <v>85091</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>693</v>
+        <v>444</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,13 +8630,13 @@
         <v>23113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>697</v>
+        <v>632</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -8669,13 +8645,13 @@
         <v>30021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -8684,13 +8660,13 @@
         <v>53135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8681,13 @@
         <v>14998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -8720,13 +8696,13 @@
         <v>19449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -8735,13 +8711,13 @@
         <v>34447</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>343</v>
+        <v>700</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,7 +8773,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8809,13 +8785,13 @@
         <v>16723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -8824,13 +8800,13 @@
         <v>5263</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>716</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -8839,13 +8815,13 @@
         <v>21986</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>718</v>
+        <v>492</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8860,13 +8836,13 @@
         <v>4367</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>709</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8875,13 +8851,13 @@
         <v>3420</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8890,13 +8866,13 @@
         <v>7787</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,13 +8887,13 @@
         <v>27399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8926,13 +8902,13 @@
         <v>17976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>731</v>
+        <v>347</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -8941,13 +8917,13 @@
         <v>45375</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +8938,13 @@
         <v>17873</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -8977,13 +8953,13 @@
         <v>7459</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>740</v>
+        <v>187</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -8992,13 +8968,13 @@
         <v>25332</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>742</v>
+        <v>467</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +8989,13 @@
         <v>2974</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>744</v>
+        <v>373</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>734</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -9028,13 +9004,13 @@
         <v>5946</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>747</v>
+        <v>299</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -9043,13 +9019,13 @@
         <v>8920</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>533</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,7 +9081,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9117,13 +9093,13 @@
         <v>1918</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9132,13 +9108,13 @@
         <v>1969</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>753</v>
+        <v>117</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9150,10 +9126,10 @@
         <v>86</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,13 +9144,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9183,13 +9159,13 @@
         <v>1077</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9198,13 +9174,13 @@
         <v>1077</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9195,13 @@
         <v>1849</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -9234,13 +9210,13 @@
         <v>648</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>751</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -9249,13 +9225,13 @@
         <v>2498</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9246,13 @@
         <v>693</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -9285,13 +9261,13 @@
         <v>1707</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -9300,13 +9276,13 @@
         <v>2400</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9321,13 +9297,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9336,13 +9312,13 @@
         <v>1060</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -9354,10 +9330,10 @@
         <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9425,13 +9401,13 @@
         <v>129560</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>29</v>
+        <v>623</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="H40" s="7">
         <v>75</v>
@@ -9440,13 +9416,13 @@
         <v>57195</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>184</v>
+        <v>768</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>779</v>
+        <v>734</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>780</v>
+        <v>228</v>
       </c>
       <c r="M40" s="7">
         <v>144</v>
@@ -9455,13 +9431,13 @@
         <v>186755</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>769</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>648</v>
+        <v>770</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>326</v>
+        <v>771</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9476,13 +9452,13 @@
         <v>48954</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -9491,13 +9467,13 @@
         <v>47018</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>395</v>
+        <v>777</v>
       </c>
       <c r="M41" s="7">
         <v>102</v>
@@ -9506,13 +9482,13 @@
         <v>95972</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>568</v>
+        <v>778</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9503,13 @@
         <v>153103</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -9542,13 +9518,13 @@
         <v>121639</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="M42" s="7">
         <v>322</v>
@@ -9557,13 +9533,13 @@
         <v>274742</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,13 +9554,13 @@
         <v>110967</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="H43" s="7">
         <v>123</v>
@@ -9593,13 +9569,13 @@
         <v>95536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>23</v>
+        <v>593</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="M43" s="7">
         <v>218</v>
@@ -9608,13 +9584,13 @@
         <v>206503</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>800</v>
+        <v>461</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>801</v>
+        <v>615</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>653</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,10 +9608,10 @@
         <v>21</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>724</v>
+        <v>794</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>802</v>
+        <v>553</v>
       </c>
       <c r="H44" s="7">
         <v>79</v>
@@ -9644,13 +9620,13 @@
         <v>66587</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>238</v>
+        <v>796</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="M44" s="7">
         <v>121</v>
@@ -9659,13 +9635,13 @@
         <v>120917</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>806</v>
+        <v>423</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9721,7 +9697,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6701-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{024BABA8-8C43-4D18-B312-37188403D534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF39F850-62A8-4787-92F2-1E44868F17B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D52229B5-52AD-4F80-B88F-9BD67FDC0BEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{603B0398-83B3-467D-8347-0FCCD1B1CEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="808">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,2365 +76,2389 @@
     <t>10,32%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
   </si>
   <si>
     <t>16,18%</t>
@@ -2849,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1F2614-F58F-48FD-BED2-0B3E9494DF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE23512-58F9-43B0-83D5-07F28B91D57B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3640,13 +3664,13 @@
         <v>51614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -3655,13 +3679,13 @@
         <v>26131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -3670,13 +3694,13 @@
         <v>77745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3715,13 @@
         <v>168743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
@@ -3706,13 +3730,13 @@
         <v>98432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -3721,13 +3745,13 @@
         <v>267174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3766,13 @@
         <v>97882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -3757,13 +3781,13 @@
         <v>55859</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>146</v>
@@ -3772,13 +3796,13 @@
         <v>153741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3817,13 @@
         <v>72617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -3808,13 +3832,13 @@
         <v>67962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -3823,13 +3847,13 @@
         <v>140579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3909,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3897,13 +3921,13 @@
         <v>36825</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -3912,13 +3936,13 @@
         <v>26940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3927,13 +3951,13 @@
         <v>63765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3972,13 @@
         <v>37212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -3963,13 +3987,13 @@
         <v>37071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -3978,13 +4002,13 @@
         <v>74283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4023,13 @@
         <v>144191</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>69</v>
@@ -4014,13 +4038,13 @@
         <v>81173</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>196</v>
@@ -4029,13 +4053,13 @@
         <v>225364</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4074,13 @@
         <v>91665</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -4065,13 +4089,13 @@
         <v>45923</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>120</v>
@@ -4080,13 +4104,13 @@
         <v>137588</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4125,13 @@
         <v>57770</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -4116,13 +4140,13 @@
         <v>34233</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -4131,13 +4155,13 @@
         <v>92003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,7 +4217,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4205,13 +4229,13 @@
         <v>11493</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4220,13 +4244,13 @@
         <v>8197</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -4235,13 +4259,13 @@
         <v>19690</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4280,13 @@
         <v>18029</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4271,13 +4295,13 @@
         <v>7489</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -4286,13 +4310,13 @@
         <v>25518</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4331,13 @@
         <v>60697</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -4322,13 +4346,13 @@
         <v>19834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -4337,13 +4361,13 @@
         <v>80531</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4382,13 @@
         <v>38498</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -4373,13 +4397,13 @@
         <v>20940</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -4388,13 +4412,13 @@
         <v>59438</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4433,13 @@
         <v>28633</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -4424,13 +4448,13 @@
         <v>13232</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4439,13 +4463,13 @@
         <v>41865</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,7 +4525,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4513,13 +4537,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4528,13 +4552,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4543,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4579,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4594,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,10 +4639,10 @@
         <v>3016</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>60</v>
@@ -4630,13 +4654,13 @@
         <v>1857</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -4645,13 +4669,13 @@
         <v>4873</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4681,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4696,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4732,13 +4756,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4747,13 +4771,13 @@
         <v>981</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4845,13 @@
         <v>126379</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>103</v>
@@ -4836,13 +4860,13 @@
         <v>114595</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>219</v>
@@ -4851,13 +4875,13 @@
         <v>240974</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4896,13 @@
         <v>152166</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -4887,13 +4911,13 @@
         <v>106567</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M41" s="7">
         <v>239</v>
@@ -4902,13 +4926,13 @@
         <v>258733</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4947,13 @@
         <v>537014</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>301</v>
@@ -4938,13 +4962,13 @@
         <v>325493</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M42" s="7">
         <v>808</v>
@@ -4953,13 +4977,13 @@
         <v>862506</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4998,13 @@
         <v>339361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -4989,13 +5013,13 @@
         <v>207347</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>509</v>
@@ -5004,13 +5028,13 @@
         <v>546709</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5049,13 @@
         <v>265785</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>182</v>
@@ -5040,13 +5064,13 @@
         <v>194678</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>435</v>
@@ -5055,13 +5079,13 @@
         <v>460462</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5141,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5139,7 +5163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715C1FAC-0760-41CA-A5D9-BC2E5CBB3502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4CF13-A11B-4BA0-A4A0-D37E2CEB35D8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5156,7 +5180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5263,13 +5287,13 @@
         <v>4173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5278,13 +5302,13 @@
         <v>6522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5293,13 +5317,13 @@
         <v>10695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5338,13 @@
         <v>10322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5329,13 +5353,13 @@
         <v>13453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5344,13 +5368,13 @@
         <v>23775</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5389,13 @@
         <v>25435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -5380,13 +5404,13 @@
         <v>30754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5395,13 +5419,13 @@
         <v>56188</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5440,13 @@
         <v>25825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5431,13 +5455,13 @@
         <v>22445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5446,13 +5470,13 @@
         <v>48270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5491,13 @@
         <v>13354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5482,13 +5506,13 @@
         <v>18681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -5497,13 +5521,13 @@
         <v>32036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5595,13 @@
         <v>21128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5586,13 +5610,13 @@
         <v>21635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5601,13 +5625,13 @@
         <v>42763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5646,13 @@
         <v>34802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -5637,13 +5661,13 @@
         <v>34418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -5652,13 +5676,13 @@
         <v>69220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5697,13 @@
         <v>110405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -5688,13 +5712,13 @@
         <v>107061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>215</v>
@@ -5703,13 +5727,13 @@
         <v>217467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5748,13 @@
         <v>103681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5739,13 +5763,13 @@
         <v>68782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -5754,13 +5778,13 @@
         <v>172464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5799,13 @@
         <v>74168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5790,13 +5814,13 @@
         <v>41820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -5805,13 +5829,13 @@
         <v>115988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5903,13 @@
         <v>29307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5894,13 +5918,13 @@
         <v>23880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -5909,13 +5933,13 @@
         <v>53187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5954,13 @@
         <v>54525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5945,13 +5969,13 @@
         <v>46211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5960,13 +5984,13 @@
         <v>100736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +6005,13 @@
         <v>167989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>133</v>
       </c>
       <c r="H18" s="7">
         <v>116</v>
@@ -5996,13 +6020,13 @@
         <v>113904</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>275</v>
@@ -6011,13 +6035,13 @@
         <v>281894</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6056,13 @@
         <v>133095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6047,13 +6071,13 @@
         <v>75520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6062,13 +6086,13 @@
         <v>208615</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6107,13 @@
         <v>74672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -6098,13 +6122,13 @@
         <v>57898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -6113,13 +6137,13 @@
         <v>132570</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6199,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6187,13 +6211,13 @@
         <v>31842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6202,13 +6226,13 @@
         <v>16530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6217,13 +6241,13 @@
         <v>48372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>15</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,10 +6265,10 @@
         <v>111</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -6253,13 +6277,13 @@
         <v>23214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -6268,13 +6292,13 @@
         <v>71401</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6313,13 @@
         <v>134368</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -6304,13 +6328,13 @@
         <v>100793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>219</v>
@@ -6319,13 +6343,13 @@
         <v>235161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6364,13 @@
         <v>87630</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6355,13 +6379,13 @@
         <v>49673</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -6370,13 +6394,13 @@
         <v>137303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6415,13 @@
         <v>65701</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>309</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -6406,13 +6430,13 @@
         <v>52909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -6421,13 +6445,13 @@
         <v>118609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,7 +6507,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6495,13 +6519,13 @@
         <v>10279</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -6510,13 +6534,13 @@
         <v>15696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -6525,13 +6549,13 @@
         <v>25975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6570,13 @@
         <v>19571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6561,13 +6585,13 @@
         <v>17831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6576,13 +6600,13 @@
         <v>37402</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6621,13 @@
         <v>64675</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -6612,13 +6636,13 @@
         <v>38500</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -6627,13 +6651,13 @@
         <v>103175</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6672,13 @@
         <v>43195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6663,13 +6687,13 @@
         <v>19578</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -6678,13 +6702,13 @@
         <v>62773</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6723,13 @@
         <v>28007</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>491</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -6714,13 +6738,13 @@
         <v>14274</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>492</v>
+        <v>268</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -6729,13 +6753,13 @@
         <v>42280</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>388</v>
+        <v>499</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,7 +6815,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6803,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6818,13 +6842,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6833,13 +6857,13 @@
         <v>1925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6878,13 @@
         <v>1729</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>501</v>
+        <v>412</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6869,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -6884,13 +6908,13 @@
         <v>1729</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6905,13 +6929,13 @@
         <v>2182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6920,13 +6944,13 @@
         <v>2231</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -6935,13 +6959,13 @@
         <v>4413</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6980,13 @@
         <v>2075</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6971,13 +6995,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6986,13 +7010,13 @@
         <v>3108</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>522</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7022,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7037,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7135,13 @@
         <v>96729</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -7126,13 +7150,13 @@
         <v>86188</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M40" s="7">
         <v>173</v>
@@ -7141,13 +7165,13 @@
         <v>182917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7186,13 @@
         <v>169136</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>158</v>
+        <v>534</v>
       </c>
       <c r="H41" s="7">
         <v>132</v>
@@ -7177,13 +7201,13 @@
         <v>135127</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M41" s="7">
         <v>292</v>
@@ -7192,13 +7216,13 @@
         <v>304263</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7213,13 +7237,13 @@
         <v>505054</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H42" s="7">
         <v>387</v>
@@ -7228,13 +7252,13 @@
         <v>393243</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>348</v>
+        <v>544</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>352</v>
+        <v>545</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M42" s="7">
         <v>860</v>
@@ -7243,13 +7267,13 @@
         <v>898297</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7264,13 +7288,13 @@
         <v>395501</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="H43" s="7">
         <v>231</v>
@@ -7279,13 +7303,13 @@
         <v>237032</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M43" s="7">
         <v>604</v>
@@ -7294,13 +7318,13 @@
         <v>632534</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7339,13 @@
         <v>255902</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>550</v>
+        <v>210</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="H44" s="7">
         <v>177</v>
@@ -7330,13 +7354,13 @@
         <v>185582</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="M44" s="7">
         <v>407</v>
@@ -7345,13 +7369,13 @@
         <v>441484</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,7 +7431,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7429,7 +7453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED3329-CD36-468E-95E4-46F22B8DCDB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699CA8AB-2C3D-4D2F-A38B-EECE983F007F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7446,7 +7470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7553,13 +7577,13 @@
         <v>1289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>559</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7568,13 +7592,13 @@
         <v>3119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>569</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7583,13 +7607,13 @@
         <v>4408</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7628,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7619,13 +7643,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>566</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7634,13 +7658,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,13 +7679,13 @@
         <v>9030</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>570</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -7670,13 +7694,13 @@
         <v>10679</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7685,13 +7709,13 @@
         <v>19709</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7730,13 @@
         <v>8393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7721,13 +7745,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>459</v>
+        <v>587</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -7736,13 +7760,13 @@
         <v>17463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>581</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7781,13 @@
         <v>3873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>584</v>
+        <v>374</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -7772,13 +7796,13 @@
         <v>5715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -7787,13 +7811,13 @@
         <v>9588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7885,13 @@
         <v>12153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>598</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>593</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7876,13 +7900,13 @@
         <v>14574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -7891,13 +7915,13 @@
         <v>26727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7912,13 +7936,13 @@
         <v>11163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -7927,13 +7951,13 @@
         <v>13483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7942,13 +7966,13 @@
         <v>24646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7987,13 @@
         <v>36513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -7978,13 +8002,13 @@
         <v>27008</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -7993,13 +8017,13 @@
         <v>63521</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8038,13 @@
         <v>31990</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -8029,13 +8053,13 @@
         <v>23001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>617</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -8044,13 +8068,13 @@
         <v>54991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8089,13 @@
         <v>18924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -8080,13 +8104,13 @@
         <v>13289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -8095,13 +8119,13 @@
         <v>32213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8193,13 @@
         <v>16895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>632</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>626</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -8184,13 +8208,13 @@
         <v>13907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -8199,13 +8223,13 @@
         <v>30802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,13 +8244,13 @@
         <v>17381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -8235,13 +8259,13 @@
         <v>14520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -8250,13 +8274,13 @@
         <v>31901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>639</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8295,13 @@
         <v>31708</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -8286,13 +8310,13 @@
         <v>26840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>645</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>72</v>
@@ -8301,13 +8325,13 @@
         <v>58549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8346,13 @@
         <v>28905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -8337,13 +8361,13 @@
         <v>24278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -8352,13 +8376,13 @@
         <v>53183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>660</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8397,13 @@
         <v>13562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>662</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -8388,13 +8412,13 @@
         <v>21127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -8403,13 +8427,13 @@
         <v>34689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,7 +8489,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8477,13 +8501,13 @@
         <v>80583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>671</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -8492,13 +8516,13 @@
         <v>18363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>675</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -8507,13 +8531,13 @@
         <v>98946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8552,13 @@
         <v>16043</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>679</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -8543,13 +8567,13 @@
         <v>14359</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
@@ -8558,13 +8582,13 @@
         <v>30402</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8579,13 +8603,13 @@
         <v>46604</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -8594,13 +8618,13 @@
         <v>38487</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>546</v>
+        <v>692</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -8609,13 +8633,13 @@
         <v>85091</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>444</v>
+        <v>632</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8654,13 @@
         <v>23113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -8645,13 +8669,13 @@
         <v>30021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>688</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -8660,13 +8684,13 @@
         <v>53135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8705,13 @@
         <v>14998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -8696,13 +8720,13 @@
         <v>19449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -8711,13 +8735,13 @@
         <v>34447</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,7 +8797,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8785,13 +8809,13 @@
         <v>16723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -8800,13 +8824,13 @@
         <v>5263</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>716</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -8815,13 +8839,13 @@
         <v>21986</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>492</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8836,13 +8860,13 @@
         <v>4367</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8851,13 +8875,13 @@
         <v>3420</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>714</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8866,13 +8890,13 @@
         <v>7787</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>715</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8887,13 +8911,13 @@
         <v>27399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8902,13 +8926,13 @@
         <v>17976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -8917,13 +8941,13 @@
         <v>45375</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8962,13 @@
         <v>17873</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -8953,13 +8977,13 @@
         <v>7459</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>187</v>
+        <v>738</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -8968,13 +8992,13 @@
         <v>25332</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,13 +9013,13 @@
         <v>2974</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>373</v>
+        <v>742</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>734</v>
+        <v>394</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -9004,13 +9028,13 @@
         <v>5946</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>299</v>
+        <v>745</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -9019,13 +9043,13 @@
         <v>8920</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>748</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>738</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,7 +9105,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9093,13 +9117,13 @@
         <v>1918</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9108,13 +9132,13 @@
         <v>1969</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>117</v>
+        <v>752</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9126,10 +9150,10 @@
         <v>86</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,13 +9168,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9159,13 +9183,13 @@
         <v>1077</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9174,13 +9198,13 @@
         <v>1077</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9195,13 +9219,13 @@
         <v>1849</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -9210,13 +9234,13 @@
         <v>648</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -9225,13 +9249,13 @@
         <v>2498</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9246,13 +9270,13 @@
         <v>693</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -9261,13 +9285,13 @@
         <v>1707</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -9276,13 +9300,13 @@
         <v>2400</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9312,13 +9336,13 @@
         <v>1060</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -9330,10 +9354,10 @@
         <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9401,13 +9425,13 @@
         <v>129560</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="H40" s="7">
         <v>75</v>
@@ -9416,13 +9440,13 @@
         <v>57195</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>734</v>
+        <v>394</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M40" s="7">
         <v>144</v>
@@ -9431,13 +9455,13 @@
         <v>186755</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9452,13 +9476,13 @@
         <v>48954</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -9467,13 +9491,13 @@
         <v>47018</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>776</v>
+        <v>267</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="M41" s="7">
         <v>102</v>
@@ -9482,13 +9506,13 @@
         <v>95972</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,13 +9527,13 @@
         <v>153103</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -9518,13 +9542,13 @@
         <v>121639</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="M42" s="7">
         <v>322</v>
@@ -9533,13 +9557,13 @@
         <v>274742</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9578,13 @@
         <v>110967</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>791</v>
+        <v>91</v>
       </c>
       <c r="H43" s="7">
         <v>123</v>
@@ -9569,13 +9593,13 @@
         <v>95536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>593</v>
+        <v>23</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>793</v>
+        <v>129</v>
       </c>
       <c r="M43" s="7">
         <v>218</v>
@@ -9584,13 +9608,13 @@
         <v>206503</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>461</v>
+        <v>802</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,10 +9632,10 @@
         <v>21</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>553</v>
+        <v>804</v>
       </c>
       <c r="H44" s="7">
         <v>79</v>
@@ -9620,13 +9644,13 @@
         <v>66587</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>795</v>
+        <v>353</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>797</v>
+        <v>181</v>
       </c>
       <c r="M44" s="7">
         <v>121</v>
@@ -9635,13 +9659,13 @@
         <v>120917</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>798</v>
+        <v>155</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>423</v>
+        <v>806</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9697,7 +9721,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6701-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF39F850-62A8-4787-92F2-1E44868F17B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{865BA362-1078-4B61-8778-1754D29749C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{603B0398-83B3-467D-8347-0FCCD1B1CEC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F1297F2-5484-48C1-BFFC-955BB5586CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,2392 +76,2392 @@
     <t>10,32%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>36,41%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
 </sst>
 </file>
@@ -2873,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE23512-58F9-43B0-83D5-07F28B91D57B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC5F00-D04F-4F1B-AB77-228DBADB2EB2}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3542,10 +3542,10 @@
         <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3613,13 +3613,13 @@
         <v>35297</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3628,13 +3628,13 @@
         <v>37434</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3643,13 +3643,13 @@
         <v>72731</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3664,10 @@
         <v>51614</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>118</v>
@@ -4229,13 +4229,13 @@
         <v>11493</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4244,13 +4244,13 @@
         <v>8197</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -4259,13 +4259,13 @@
         <v>19690</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4280,13 @@
         <v>18029</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4298,10 +4298,10 @@
         <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -4310,13 +4310,13 @@
         <v>25518</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4331,13 @@
         <v>60697</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -4346,13 +4346,13 @@
         <v>19834</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -4361,10 +4361,10 @@
         <v>80531</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>223</v>
@@ -4397,13 +4397,13 @@
         <v>20940</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -4412,13 +4412,13 @@
         <v>59438</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4433,13 @@
         <v>28633</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -4448,13 +4448,13 @@
         <v>13232</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>37</v>
@@ -4463,13 +4463,13 @@
         <v>41865</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4525,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4537,13 +4537,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4552,13 +4552,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4567,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4603,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4618,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,10 +4639,10 @@
         <v>3016</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>60</v>
@@ -4654,13 +4654,13 @@
         <v>1857</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -4669,13 +4669,13 @@
         <v>4873</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4705,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4720,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4756,13 +4756,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4771,13 +4771,13 @@
         <v>981</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4845,13 @@
         <v>126379</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
         <v>103</v>
@@ -4860,13 +4860,13 @@
         <v>114595</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>219</v>
@@ -4875,13 +4875,13 @@
         <v>240974</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4896,13 @@
         <v>152166</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -4911,13 +4911,13 @@
         <v>106567</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>239</v>
@@ -4929,10 +4929,10 @@
         <v>122</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4947,13 @@
         <v>537014</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H42" s="7">
         <v>301</v>
@@ -4962,13 +4962,13 @@
         <v>325493</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M42" s="7">
         <v>808</v>
@@ -4977,13 +4977,13 @@
         <v>862506</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4998,13 @@
         <v>339361</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -5013,13 +5013,13 @@
         <v>207347</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="M43" s="7">
         <v>509</v>
@@ -5028,13 +5028,13 @@
         <v>546709</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5049,13 @@
         <v>265785</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>182</v>
@@ -5064,13 +5064,13 @@
         <v>194678</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="M44" s="7">
         <v>435</v>
@@ -5079,13 +5079,13 @@
         <v>460462</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,7 +5141,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5163,7 +5163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4CF13-A11B-4BA0-A4A0-D37E2CEB35D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80E9ED5-AB81-45DD-A85A-FAAC48C22DBF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5180,7 +5180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5287,13 +5287,13 @@
         <v>4173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5302,13 +5302,13 @@
         <v>6522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5317,13 +5317,13 @@
         <v>10695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5338,13 @@
         <v>10322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5353,13 +5353,13 @@
         <v>13453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5368,13 +5368,13 @@
         <v>23775</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5389,13 @@
         <v>25435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -5404,13 +5404,13 @@
         <v>30754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5419,13 +5419,13 @@
         <v>56188</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5440,13 @@
         <v>25825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5455,13 +5455,13 @@
         <v>22445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5470,13 +5470,13 @@
         <v>48270</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5491,13 @@
         <v>13354</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5506,13 +5506,13 @@
         <v>18681</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -5521,13 +5521,13 @@
         <v>32036</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5595,13 @@
         <v>21128</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5610,13 +5610,13 @@
         <v>21635</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5625,13 +5625,13 @@
         <v>42763</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5646,13 @@
         <v>34802</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -5661,13 +5661,13 @@
         <v>34418</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -5676,10 +5676,10 @@
         <v>69220</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>355</v>
@@ -5748,13 +5748,13 @@
         <v>103681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5763,7 +5763,7 @@
         <v>68782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>368</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5903,13 +5903,13 @@
         <v>29307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5957,10 +5957,10 @@
         <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5969,13 +5969,13 @@
         <v>46211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5984,13 +5984,13 @@
         <v>100736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6005,13 @@
         <v>167989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>133</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>116</v>
@@ -6020,13 +6020,13 @@
         <v>113904</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>275</v>
@@ -6035,13 +6035,13 @@
         <v>281894</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,13 +6056,13 @@
         <v>133095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6071,13 +6071,13 @@
         <v>75520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6086,13 +6086,13 @@
         <v>208615</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6107,13 @@
         <v>74672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -6122,10 +6122,10 @@
         <v>57898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>26</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>418</v>
@@ -6211,13 +6211,13 @@
         <v>31842</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6226,13 +6226,13 @@
         <v>16530</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6241,13 +6241,13 @@
         <v>48372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6262,13 @@
         <v>48187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -6277,13 +6277,13 @@
         <v>23214</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -6292,13 +6292,13 @@
         <v>71401</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6313,13 @@
         <v>134368</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -6328,13 +6328,13 @@
         <v>100793</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>219</v>
@@ -6343,13 +6343,13 @@
         <v>235161</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,10 +6364,10 @@
         <v>87630</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>446</v>
@@ -6379,13 +6379,13 @@
         <v>49673</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -6394,10 +6394,10 @@
         <v>137303</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>451</v>
@@ -6421,7 +6421,7 @@
         <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>309</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -6430,13 +6430,13 @@
         <v>52909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -6445,7 +6445,7 @@
         <v>118609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>458</v>
@@ -6573,10 +6573,10 @@
         <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6585,13 +6585,13 @@
         <v>17831</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6600,13 +6600,13 @@
         <v>37402</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6621,13 @@
         <v>64675</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -6636,13 +6636,13 @@
         <v>38500</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -6651,13 +6651,13 @@
         <v>103175</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6672,13 @@
         <v>43195</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6687,13 +6687,13 @@
         <v>19578</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -6702,13 +6702,13 @@
         <v>62773</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6723,13 @@
         <v>28007</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -6738,7 +6738,7 @@
         <v>14274</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>268</v>
+        <v>496</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>497</v>
@@ -6756,10 +6756,10 @@
         <v>499</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,7 +6815,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6827,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6842,13 +6842,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6857,13 +6857,13 @@
         <v>1925</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,10 +6878,10 @@
         <v>1729</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>506</v>
@@ -6893,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>507</v>
@@ -6911,7 +6911,7 @@
         <v>508</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>509</v>
@@ -6932,10 +6932,10 @@
         <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>511</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6944,13 +6944,13 @@
         <v>2231</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -6959,13 +6959,13 @@
         <v>4413</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6980,13 @@
         <v>2075</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6995,13 +6995,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -7010,13 +7010,13 @@
         <v>3108</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>507</v>
@@ -7061,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7135,13 @@
         <v>96729</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H40" s="7">
         <v>86</v>
@@ -7150,13 +7150,13 @@
         <v>86188</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M40" s="7">
         <v>173</v>
@@ -7165,13 +7165,13 @@
         <v>182917</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>350</v>
+        <v>528</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7186,13 @@
         <v>169136</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H41" s="7">
         <v>132</v>
@@ -7201,13 +7201,13 @@
         <v>135127</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M41" s="7">
         <v>292</v>
@@ -7216,13 +7216,13 @@
         <v>304263</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7237,13 @@
         <v>505054</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H42" s="7">
         <v>387</v>
@@ -7252,13 +7252,13 @@
         <v>393243</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M42" s="7">
         <v>860</v>
@@ -7267,13 +7267,13 @@
         <v>898297</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7288,13 @@
         <v>395501</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H43" s="7">
         <v>231</v>
@@ -7303,13 +7303,13 @@
         <v>237032</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M43" s="7">
         <v>604</v>
@@ -7318,13 +7318,13 @@
         <v>632534</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>556</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7339,13 @@
         <v>255902</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>210</v>
+        <v>555</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>559</v>
+        <v>183</v>
       </c>
       <c r="H44" s="7">
         <v>177</v>
@@ -7354,13 +7354,13 @@
         <v>185582</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M44" s="7">
         <v>407</v>
@@ -7369,13 +7369,13 @@
         <v>441484</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,7 +7431,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -7453,7 +7453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699CA8AB-2C3D-4D2F-A38B-EECE983F007F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C14963F-40BF-4BCD-8C5C-8E471F91EAE7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7470,7 +7470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7577,13 +7577,13 @@
         <v>1289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>564</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7592,13 +7592,13 @@
         <v>3119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -7607,13 +7607,13 @@
         <v>4408</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>572</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7628,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7643,13 +7643,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>572</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7658,13 +7658,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7679,13 @@
         <v>9030</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -7694,10 +7694,10 @@
         <v>10679</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>580</v>
@@ -7712,10 +7712,10 @@
         <v>581</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7730,13 @@
         <v>8393</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7745,13 +7745,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -7760,13 +7760,13 @@
         <v>17463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>587</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,10 +7781,10 @@
         <v>3873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>374</v>
+        <v>590</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>591</v>
@@ -7796,13 +7796,13 @@
         <v>5715</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -7811,13 +7811,13 @@
         <v>9588</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7885,13 @@
         <v>12153</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -7900,13 +7900,13 @@
         <v>14574</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -7915,13 +7915,13 @@
         <v>26727</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7936,13 @@
         <v>11163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -7951,13 +7951,13 @@
         <v>13483</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -8005,10 +8005,10 @@
         <v>614</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -8017,13 +8017,13 @@
         <v>63521</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8038,13 @@
         <v>31990</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -8053,7 +8053,7 @@
         <v>23001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>622</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>623</v>
@@ -8068,13 +8068,13 @@
         <v>54991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8089,13 @@
         <v>18924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>630</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -8104,13 +8104,13 @@
         <v>13289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>632</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -8119,13 +8119,13 @@
         <v>32213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8181,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8193,13 +8193,13 @@
         <v>16895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>637</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -8208,13 +8208,13 @@
         <v>13907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>640</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -8223,13 +8223,13 @@
         <v>30802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>637</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>638</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8244,13 @@
         <v>17381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>644</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -8259,13 +8259,13 @@
         <v>14520</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>643</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -8274,13 +8274,13 @@
         <v>31901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8295,13 @@
         <v>31708</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>171</v>
+        <v>652</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
@@ -8310,13 +8310,13 @@
         <v>26840</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>655</v>
       </c>
       <c r="M18" s="7">
         <v>72</v>
@@ -8325,13 +8325,13 @@
         <v>58549</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8346,13 @@
         <v>28905</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -8361,13 +8361,13 @@
         <v>24278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -8376,13 +8376,13 @@
         <v>53183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>660</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8397,13 +8397,13 @@
         <v>13562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>663</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -8412,13 +8412,13 @@
         <v>21127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>667</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -8427,13 +8427,13 @@
         <v>34689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>668</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,13 +8501,13 @@
         <v>80583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -8516,13 +8516,13 @@
         <v>18363</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -8531,13 +8531,13 @@
         <v>98946</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>679</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8552,13 @@
         <v>16043</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>679</v>
+        <v>640</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>681</v>
+        <v>192</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -8585,10 +8585,10 @@
         <v>685</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,13 +8603,13 @@
         <v>46604</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -8618,13 +8618,13 @@
         <v>38487</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
@@ -8633,13 +8633,13 @@
         <v>85091</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,13 +8654,13 @@
         <v>23113</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -8669,13 +8669,13 @@
         <v>30021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>698</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
@@ -8684,13 +8684,13 @@
         <v>53135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8705,13 @@
         <v>14998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -8720,13 +8720,13 @@
         <v>19449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -8735,7 +8735,7 @@
         <v>34447</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>709</v>
+        <v>343</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>710</v>
@@ -8809,7 +8809,7 @@
         <v>16723</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>712</v>
@@ -8842,10 +8842,10 @@
         <v>717</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>268</v>
+        <v>718</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8860,13 +8860,13 @@
         <v>4367</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -8875,13 +8875,13 @@
         <v>3420</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -8890,13 +8890,13 @@
         <v>7787</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>724</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,13 +8911,13 @@
         <v>27399</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8926,13 +8926,13 @@
         <v>17976</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>731</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -8941,13 +8941,13 @@
         <v>45375</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +8962,13 @@
         <v>17873</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -8977,13 +8977,13 @@
         <v>7459</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -8992,13 +8992,13 @@
         <v>25332</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>740</v>
+        <v>635</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>742</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +9013,13 @@
         <v>2974</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>394</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -9028,13 +9028,13 @@
         <v>5946</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -9043,13 +9043,13 @@
         <v>8920</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>748</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,7 +9105,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9117,13 +9117,13 @@
         <v>1918</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -9132,13 +9132,13 @@
         <v>1969</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9150,10 +9150,10 @@
         <v>86</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9168,13 +9168,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9183,13 +9183,13 @@
         <v>1077</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9198,13 +9198,13 @@
         <v>1077</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9219,13 @@
         <v>1849</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -9234,10 +9234,10 @@
         <v>648</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>762</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>763</v>
@@ -9273,7 +9273,7 @@
         <v>767</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>768</v>
@@ -9285,7 +9285,7 @@
         <v>1707</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>769</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -9339,7 +9339,7 @@
         <v>774</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>775</v>
@@ -9354,7 +9354,7 @@
         <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>776</v>
@@ -9428,7 +9428,7 @@
         <v>777</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>629</v>
+        <v>29</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>778</v>
@@ -9440,13 +9440,13 @@
         <v>57195</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>233</v>
+        <v>780</v>
       </c>
       <c r="M40" s="7">
         <v>144</v>
@@ -9455,13 +9455,13 @@
         <v>186755</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>780</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>781</v>
+        <v>648</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>782</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9476,13 +9476,13 @@
         <v>48954</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>783</v>
+        <v>702</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -9491,13 +9491,13 @@
         <v>47018</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>267</v>
+        <v>784</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>787</v>
+        <v>395</v>
       </c>
       <c r="M41" s="7">
         <v>102</v>
@@ -9506,13 +9506,13 @@
         <v>95972</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>788</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9527,13 +9527,13 @@
         <v>153103</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="H42" s="7">
         <v>174</v>
@@ -9542,13 +9542,13 @@
         <v>121639</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="M42" s="7">
         <v>322</v>
@@ -9557,13 +9557,13 @@
         <v>274742</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,13 +9578,13 @@
         <v>110967</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>91</v>
+        <v>797</v>
       </c>
       <c r="H43" s="7">
         <v>123</v>
@@ -9593,13 +9593,13 @@
         <v>95536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>129</v>
+        <v>799</v>
       </c>
       <c r="M43" s="7">
         <v>218</v>
@@ -9608,13 +9608,13 @@
         <v>206503</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>621</v>
+        <v>801</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>413</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,10 +9632,10 @@
         <v>21</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>803</v>
+        <v>724</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H44" s="7">
         <v>79</v>
@@ -9644,13 +9644,13 @@
         <v>66587</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>353</v>
+        <v>803</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>805</v>
+        <v>238</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>181</v>
+        <v>804</v>
       </c>
       <c r="M44" s="7">
         <v>121</v>
@@ -9659,7 +9659,7 @@
         <v>120917</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>155</v>
+        <v>805</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>806</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6701-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865BA362-1078-4B61-8778-1754D29749C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C53EDB9D-14B2-4EA6-AE90-C4CB0B060D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F1297F2-5484-48C1-BFFC-955BB5586CB4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5F2FF3A7-6AD8-408A-B207-9FC42C23F767}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="815">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -223,7 +223,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>8,92%</t>
@@ -358,7 +358,7 @@
     <t>24,69%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>8,28%</t>
@@ -496,7 +496,7 @@
     <t>22,89%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>10,02%</t>
@@ -634,7 +634,7 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,94%</t>
@@ -760,7 +760,7 @@
     <t>24,35%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -799,6 +799,12 @@
     <t>66,71%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>8,9%</t>
   </si>
   <si>
@@ -1543,34 +1549,37 @@
     <t>20,96%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>37,09%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>42,99%</t>
@@ -1579,16 +1588,19 @@
     <t>83,94%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
   </si>
   <si>
     <t>19,91%</t>
@@ -1597,871 +1609,880 @@
     <t>65,84%</t>
   </si>
   <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
     <t>27,81%</t>
   </si>
   <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>15,53%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
   </si>
 </sst>
 </file>
@@ -2873,8 +2894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DC5F00-D04F-4F1B-AB77-228DBADB2EB2}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6F838A-65FC-477C-9EC9-8B211FD3E861}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4203,7 +4224,7 @@
         <v>519</v>
       </c>
       <c r="N27" s="7">
-        <v>593004</v>
+        <v>593003</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4833,55 +4854,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>116</v>
-      </c>
-      <c r="D40" s="7">
-        <v>126379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>254</v>
       </c>
       <c r="H40" s="7">
-        <v>103</v>
-      </c>
-      <c r="I40" s="7">
-        <v>114595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>219</v>
-      </c>
-      <c r="N40" s="7">
-        <v>240974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,49 +4905,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>139</v>
-      </c>
-      <c r="D41" s="7">
-        <v>152166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H41" s="7">
-        <v>100</v>
-      </c>
-      <c r="I41" s="7">
-        <v>106567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>239</v>
-      </c>
-      <c r="N41" s="7">
-        <v>258733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,49 +4950,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>507</v>
-      </c>
-      <c r="D42" s="7">
-        <v>537014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
-        <v>301</v>
-      </c>
-      <c r="I42" s="7">
-        <v>325493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>808</v>
-      </c>
-      <c r="N42" s="7">
-        <v>862506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,49 +4995,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>319</v>
-      </c>
-      <c r="D43" s="7">
-        <v>339361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="H43" s="7">
-        <v>190</v>
-      </c>
-      <c r="I43" s="7">
-        <v>207347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>509</v>
-      </c>
-      <c r="N43" s="7">
-        <v>546709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,49 +5040,43 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>253</v>
-      </c>
-      <c r="D44" s="7">
-        <v>265785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7">
-        <v>182</v>
-      </c>
-      <c r="I44" s="7">
-        <v>194678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>435</v>
-      </c>
-      <c r="N44" s="7">
-        <v>460462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,63 +5085,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>116</v>
+      </c>
+      <c r="D46" s="7">
+        <v>126379</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>103</v>
+      </c>
+      <c r="I46" s="7">
+        <v>114595</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M46" s="7">
+        <v>219</v>
+      </c>
+      <c r="N46" s="7">
+        <v>240974</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>139</v>
+      </c>
+      <c r="D47" s="7">
+        <v>152166</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="7">
+        <v>100</v>
+      </c>
+      <c r="I47" s="7">
+        <v>106567</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M47" s="7">
+        <v>239</v>
+      </c>
+      <c r="N47" s="7">
+        <v>258733</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>507</v>
+      </c>
+      <c r="D48" s="7">
+        <v>537014</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="7">
+        <v>301</v>
+      </c>
+      <c r="I48" s="7">
+        <v>325493</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M48" s="7">
+        <v>808</v>
+      </c>
+      <c r="N48" s="7">
+        <v>862506</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>319</v>
+      </c>
+      <c r="D49" s="7">
+        <v>339361</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="7">
+        <v>190</v>
+      </c>
+      <c r="I49" s="7">
+        <v>207347</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" s="7">
+        <v>509</v>
+      </c>
+      <c r="N49" s="7">
+        <v>546709</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>253</v>
+      </c>
+      <c r="D50" s="7">
+        <v>265785</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" s="7">
+        <v>182</v>
+      </c>
+      <c r="I50" s="7">
+        <v>194678</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M50" s="7">
+        <v>435</v>
+      </c>
+      <c r="N50" s="7">
+        <v>460462</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1334</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1420705</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>876</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>948680</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2210</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2369385</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>293</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5163,8 +5457,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80E9ED5-AB81-45DD-A85A-FAAC48C22DBF}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EFA341-7144-4261-9A5A-501824D3A8B3}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5180,7 +5474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5287,13 +5581,13 @@
         <v>4173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5302,13 +5596,13 @@
         <v>6522</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5317,13 +5611,13 @@
         <v>10695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5632,13 @@
         <v>10322</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5353,13 +5647,13 @@
         <v>13453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5368,13 +5662,13 @@
         <v>23775</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5683,13 @@
         <v>25435</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -5404,13 +5698,13 @@
         <v>30754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -5419,13 +5713,13 @@
         <v>56188</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5734,13 @@
         <v>25825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5455,13 +5749,13 @@
         <v>22445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5470,13 +5764,13 @@
         <v>48270</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5785,13 @@
         <v>13354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -5506,13 +5800,13 @@
         <v>18681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -5521,13 +5815,13 @@
         <v>32036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5889,13 @@
         <v>21128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5610,13 +5904,13 @@
         <v>21635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -5625,13 +5919,13 @@
         <v>42763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5940,13 @@
         <v>34802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -5661,13 +5955,13 @@
         <v>34418</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -5676,13 +5970,13 @@
         <v>69220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5991,13 @@
         <v>110405</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -5712,13 +6006,13 @@
         <v>107061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>215</v>
@@ -5727,13 +6021,13 @@
         <v>217467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +6042,13 @@
         <v>103681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5766,10 +6060,10 @@
         <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>174</v>
@@ -5778,13 +6072,13 @@
         <v>172464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +6093,13 @@
         <v>74168</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -5814,13 +6108,13 @@
         <v>41820</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>111</v>
@@ -5829,13 +6123,13 @@
         <v>115988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +6197,13 @@
         <v>29307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5918,13 +6212,13 @@
         <v>23880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -5933,13 +6227,13 @@
         <v>53187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,10 +6248,10 @@
         <v>54525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>138</v>
@@ -5969,10 +6263,10 @@
         <v>46211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -5984,13 +6278,13 @@
         <v>100736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6299,13 @@
         <v>167989</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>116</v>
@@ -6020,25 +6314,25 @@
         <v>113904</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>275</v>
       </c>
       <c r="N18" s="7">
-        <v>281894</v>
+        <v>281893</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>88</v>
@@ -6056,13 +6350,13 @@
         <v>133095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -6071,13 +6365,13 @@
         <v>75520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -6086,13 +6380,13 @@
         <v>208615</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6401,13 @@
         <v>74672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -6122,13 +6416,13 @@
         <v>57898</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>127</v>
@@ -6137,13 +6431,13 @@
         <v>132570</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,7 +6479,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6214,7 +6508,7 @@
         <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>232</v>
@@ -6226,13 +6520,13 @@
         <v>16530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -6244,10 +6538,10 @@
         <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,7 +6562,7 @@
         <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -6277,13 +6571,13 @@
         <v>23214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -6292,13 +6586,13 @@
         <v>71401</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6607,13 @@
         <v>134368</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -6328,13 +6622,13 @@
         <v>100793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M24" s="7">
         <v>219</v>
@@ -6343,13 +6637,13 @@
         <v>235161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6658,13 @@
         <v>87630</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -6382,10 +6676,10 @@
         <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -6394,13 +6688,13 @@
         <v>137303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6709,13 @@
         <v>65701</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
@@ -6430,13 +6724,13 @@
         <v>52909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -6448,10 +6742,10 @@
         <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6813,13 @@
         <v>10279</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -6534,13 +6828,13 @@
         <v>15696</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -6549,13 +6843,13 @@
         <v>25975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6864,13 @@
         <v>19571</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>15</v>
@@ -6585,13 +6879,13 @@
         <v>17831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6600,13 +6894,13 @@
         <v>37402</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6915,13 @@
         <v>64675</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -6636,13 +6930,13 @@
         <v>38500</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M30" s="7">
         <v>91</v>
@@ -6651,13 +6945,13 @@
         <v>103175</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6966,13 @@
         <v>43195</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6687,13 +6981,13 @@
         <v>19578</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -6702,13 +6996,13 @@
         <v>62773</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +7017,13 @@
         <v>28007</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -6738,13 +7032,13 @@
         <v>14274</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -6753,13 +7047,13 @@
         <v>42280</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>212</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,7 +7127,7 @@
         <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>503</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6842,13 +7136,13 @@
         <v>1925</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -6857,13 +7151,13 @@
         <v>1925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,19 +7166,19 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>1729</v>
+        <v>934</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6899,22 +7193,22 @@
         <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>1729</v>
+        <v>934</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +7223,13 @@
         <v>2182</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>513</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6944,13 +7238,13 @@
         <v>2231</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -6959,13 +7253,13 @@
         <v>4413</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>113</v>
+        <v>517</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +7274,13 @@
         <v>2075</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6995,13 +7289,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -7010,13 +7304,13 @@
         <v>3108</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,7 +7331,7 @@
         <v>242</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7052,7 +7346,7 @@
         <v>242</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7067,7 +7361,7 @@
         <v>242</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,10 +7370,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7106,10 +7400,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7123,55 +7417,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>96729</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>423</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H40" s="7">
-        <v>86</v>
-      </c>
-      <c r="I40" s="7">
-        <v>86188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>525</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>526</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="M40" s="7">
-        <v>173</v>
-      </c>
-      <c r="N40" s="7">
-        <v>182917</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,49 +7472,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>169136</v>
+        <v>795</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>531</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>533</v>
+        <v>60</v>
       </c>
       <c r="H41" s="7">
-        <v>132</v>
-      </c>
-      <c r="I41" s="7">
-        <v>135127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>534</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>535</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>536</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>304263</v>
+        <v>795</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>537</v>
+        <v>245</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>539</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,49 +7521,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>505054</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>540</v>
+        <v>241</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>541</v>
+        <v>242</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="H42" s="7">
-        <v>387</v>
-      </c>
-      <c r="I42" s="7">
-        <v>393243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>543</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>544</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>898297</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>545</v>
+        <v>241</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>546</v>
+        <v>242</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,49 +7570,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>395501</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>519</v>
+        <v>241</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>548</v>
+        <v>242</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="H43" s="7">
-        <v>231</v>
-      </c>
-      <c r="I43" s="7">
-        <v>237032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>550</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>551</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>552</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>632534</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>553</v>
+        <v>241</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,49 +7619,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>255902</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>555</v>
+        <v>241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>556</v>
+        <v>242</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>183</v>
+        <v>527</v>
       </c>
       <c r="H44" s="7">
-        <v>177</v>
-      </c>
-      <c r="I44" s="7">
-        <v>185582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>557</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>558</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>559</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>441484</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>560</v>
+        <v>241</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>561</v>
+        <v>242</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,63 +7668,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>87</v>
+      </c>
+      <c r="D46" s="7">
+        <v>96729</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H46" s="7">
+        <v>86</v>
+      </c>
+      <c r="I46" s="7">
+        <v>86188</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M46" s="7">
+        <v>173</v>
+      </c>
+      <c r="N46" s="7">
+        <v>182917</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>160</v>
+      </c>
+      <c r="D47" s="7">
+        <v>169136</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H47" s="7">
+        <v>132</v>
+      </c>
+      <c r="I47" s="7">
+        <v>135127</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M47" s="7">
+        <v>292</v>
+      </c>
+      <c r="N47" s="7">
+        <v>304263</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>473</v>
+      </c>
+      <c r="D48" s="7">
+        <v>505054</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H48" s="7">
+        <v>387</v>
+      </c>
+      <c r="I48" s="7">
+        <v>393243</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M48" s="7">
+        <v>860</v>
+      </c>
+      <c r="N48" s="7">
+        <v>898297</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>373</v>
+      </c>
+      <c r="D49" s="7">
+        <v>395501</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H49" s="7">
+        <v>231</v>
+      </c>
+      <c r="I49" s="7">
+        <v>237032</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M49" s="7">
+        <v>604</v>
+      </c>
+      <c r="N49" s="7">
+        <v>632534</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>230</v>
+      </c>
+      <c r="D50" s="7">
+        <v>255902</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="7">
+        <v>177</v>
+      </c>
+      <c r="I50" s="7">
+        <v>185582</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M50" s="7">
+        <v>407</v>
+      </c>
+      <c r="N50" s="7">
+        <v>441484</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>293</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7453,8 +8044,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C14963F-40BF-4BCD-8C5C-8E471F91EAE7}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B022A0EB-3183-4A70-AD36-D1EDC27A55F5}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7470,7 +8061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7574,46 +8165,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1289</v>
+        <v>1201</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3119</v>
+        <v>2892</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>566</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4408</v>
+        <v>4093</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,7 +8225,7 @@
         <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7643,13 +8234,13 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -7658,13 +8249,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,46 +8267,46 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>9030</v>
+        <v>11171</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>10679</v>
+        <v>9537</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>19709</v>
+        <v>20708</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,46 +8318,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>8393</v>
+        <v>7253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>9070</v>
+        <v>7402</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>591</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>17463</v>
+        <v>14655</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,46 +8369,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3873</v>
+        <v>3767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>590</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>5715</v>
+        <v>5159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>9588</v>
+        <v>8926</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>470</v>
+        <v>599</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,7 +8420,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -7844,7 +8435,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7859,7 +8450,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7882,46 +8473,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>12153</v>
+        <v>11342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>14574</v>
+        <v>12773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>599</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>572</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>26727</v>
+        <v>24115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,46 +8524,46 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>11163</v>
+        <v>11300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>604</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>609</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>13483</v>
+        <v>12094</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>612</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>24646</v>
+        <v>23394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>608</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,46 +8575,46 @@
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>36513</v>
+        <v>36382</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>27008</v>
+        <v>24708</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
       </c>
       <c r="N12" s="7">
-        <v>63521</v>
+        <v>61090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,46 +8626,46 @@
         <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>31990</v>
+        <v>29896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>620</v>
+        <v>565</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>23001</v>
+        <v>20987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>54991</v>
+        <v>50882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,46 +8677,46 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>18924</v>
+        <v>18133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>13289</v>
+        <v>11775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>638</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>32213</v>
+        <v>29907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>634</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -8152,7 +8743,7 @@
         <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>91354</v>
+        <v>82336</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -8167,7 +8758,7 @@
         <v>158</v>
       </c>
       <c r="N15" s="7">
-        <v>202097</v>
+        <v>189389</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -8190,46 +8781,46 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>16895</v>
+        <v>16284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>13907</v>
+        <v>12870</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>639</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
       </c>
       <c r="N16" s="7">
-        <v>30802</v>
+        <v>29154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,46 +8832,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>17381</v>
+        <v>16463</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>561</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>14520</v>
+        <v>13134</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>651</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>31901</v>
+        <v>29598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>538</v>
+        <v>653</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,46 +8883,46 @@
         <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>31708</v>
+        <v>30719</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="H18" s="7">
         <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>26840</v>
+        <v>25507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>653</v>
+        <v>188</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>655</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>72</v>
       </c>
       <c r="N18" s="7">
-        <v>58549</v>
+        <v>56226</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>656</v>
+        <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,46 +8934,46 @@
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>28905</v>
+        <v>26856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>24278</v>
+        <v>22135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>662</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>53183</v>
+        <v>48990</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,46 +8985,46 @@
         <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>13562</v>
+        <v>13061</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>21127</v>
+        <v>19421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>669</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>672</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
       </c>
       <c r="N20" s="7">
-        <v>34689</v>
+        <v>32482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>673</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8445,7 +9036,7 @@
         <v>103</v>
       </c>
       <c r="D21" s="7">
-        <v>108451</v>
+        <v>103383</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -8460,7 +9051,7 @@
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>100672</v>
+        <v>93067</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -8475,7 +9066,7 @@
         <v>242</v>
       </c>
       <c r="N21" s="7">
-        <v>209123</v>
+        <v>196449</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -8498,46 +9089,46 @@
         <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>80583</v>
+        <v>272441</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
       </c>
       <c r="I22" s="7">
-        <v>18363</v>
+        <v>16922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>676</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>98946</v>
+        <v>289363</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,46 +9140,46 @@
         <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>16043</v>
+        <v>15265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>686</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
       </c>
       <c r="I23" s="7">
-        <v>14359</v>
+        <v>13083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="M23" s="7">
         <v>38</v>
       </c>
       <c r="N23" s="7">
-        <v>30402</v>
+        <v>28348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,46 +9191,46 @@
         <v>54</v>
       </c>
       <c r="D24" s="7">
-        <v>46604</v>
+        <v>44386</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>233</v>
+        <v>693</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
       </c>
       <c r="I24" s="7">
-        <v>38487</v>
+        <v>36501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>690</v>
+        <v>605</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="M24" s="7">
         <v>119</v>
       </c>
       <c r="N24" s="7">
-        <v>85091</v>
+        <v>80888</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>692</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,46 +9242,46 @@
         <v>22</v>
       </c>
       <c r="D25" s="7">
-        <v>23113</v>
+        <v>21261</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>30021</v>
+        <v>27283</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>698</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="M25" s="7">
         <v>68</v>
       </c>
       <c r="N25" s="7">
-        <v>53135</v>
+        <v>48543</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8702,46 +9293,46 @@
         <v>13</v>
       </c>
       <c r="D26" s="7">
-        <v>14998</v>
+        <v>13817</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
       </c>
       <c r="I26" s="7">
-        <v>19449</v>
+        <v>17791</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
       </c>
       <c r="N26" s="7">
-        <v>34447</v>
+        <v>31608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>343</v>
+        <v>712</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,7 +9344,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -8768,7 +9359,7 @@
         <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>120679</v>
+        <v>111580</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -8783,7 +9374,7 @@
         <v>317</v>
       </c>
       <c r="N27" s="7">
-        <v>302020</v>
+        <v>478750</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -8806,46 +9397,46 @@
         <v>17</v>
       </c>
       <c r="D28" s="7">
-        <v>16723</v>
+        <v>15418</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>662</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
       </c>
       <c r="I28" s="7">
-        <v>5263</v>
+        <v>4864</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>21986</v>
+        <v>20282</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>718</v>
+        <v>351</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>692</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,46 +9448,46 @@
         <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>4367</v>
+        <v>4085</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>3420</v>
+        <v>3118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>723</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
       </c>
       <c r="N29" s="7">
-        <v>7787</v>
+        <v>7203</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>726</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,46 +9499,46 @@
         <v>30</v>
       </c>
       <c r="D30" s="7">
-        <v>27399</v>
+        <v>26438</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
       </c>
       <c r="I30" s="7">
-        <v>17976</v>
+        <v>16623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
       </c>
       <c r="N30" s="7">
-        <v>45375</v>
+        <v>43060</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8959,46 +9550,46 @@
         <v>18</v>
       </c>
       <c r="D31" s="7">
-        <v>17873</v>
+        <v>16271</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
       </c>
       <c r="I31" s="7">
-        <v>7459</v>
+        <v>6775</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>741</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
       </c>
       <c r="N31" s="7">
-        <v>25332</v>
+        <v>23047</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>635</v>
+        <v>742</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,46 +9601,46 @@
         <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>2974</v>
+        <v>2626</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>747</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
       </c>
       <c r="I32" s="7">
-        <v>5946</v>
+        <v>5419</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>747</v>
+        <v>612</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
       </c>
       <c r="N32" s="7">
-        <v>8920</v>
+        <v>8045</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>749</v>
+        <v>157</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>750</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>533</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,7 +9652,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -9076,7 +9667,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -9091,7 +9682,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -9111,49 +9702,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1918</v>
+        <v>1036</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>1969</v>
+        <v>1841</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N34" s="7">
-        <v>3887</v>
+        <v>2877</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>86</v>
+        <v>756</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,37 +9765,37 @@
         <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>757</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>1077</v>
+        <v>999</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1077</v>
+        <v>999</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>313</v>
+        <v>762</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9216,46 +9807,46 @@
         <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>438</v>
+        <v>763</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>761</v>
+        <v>581</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>765</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>2498</v>
+        <v>2436</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>765</v>
+        <v>712</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,46 +9858,46 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>767</v>
+        <v>337</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>1707</v>
+        <v>1631</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>482</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>2400</v>
+        <v>2295</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,37 +9918,37 @@
         <v>242</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>757</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>1060</v>
+        <v>1007</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>1060</v>
+        <v>1007</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>68</v>
+        <v>777</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>241</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,10 +9957,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -9384,7 +9975,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -9396,10 +9987,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -9413,55 +10004,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>129560</v>
+        <v>746</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>777</v>
+        <v>245</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>29</v>
+        <v>528</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>778</v>
+        <v>60</v>
       </c>
       <c r="H40" s="7">
-        <v>75</v>
-      </c>
-      <c r="I40" s="7">
-        <v>57195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>779</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>780</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>186755</v>
+        <v>746</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>326</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9470,49 +10059,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>48954</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>702</v>
+        <v>241</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>781</v>
+        <v>242</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="H41" s="7">
-        <v>60</v>
-      </c>
-      <c r="I41" s="7">
-        <v>47018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>783</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>784</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>95972</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>566</v>
+        <v>241</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>568</v>
+        <v>242</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>785</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,49 +10108,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>153103</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>786</v>
+        <v>241</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>787</v>
+        <v>242</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>788</v>
+        <v>527</v>
       </c>
       <c r="H42" s="7">
-        <v>174</v>
-      </c>
-      <c r="I42" s="7">
-        <v>121639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>789</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>790</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>791</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>274742</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>792</v>
+        <v>241</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>793</v>
+        <v>242</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>794</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9572,49 +10157,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>110967</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>795</v>
+        <v>241</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>796</v>
+        <v>242</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>797</v>
+        <v>527</v>
       </c>
       <c r="H43" s="7">
-        <v>123</v>
-      </c>
-      <c r="I43" s="7">
-        <v>95536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>798</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>799</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>206503</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>800</v>
+        <v>241</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>801</v>
+        <v>242</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>653</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9623,49 +10206,47 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>54330</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>724</v>
+        <v>242</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>802</v>
+        <v>527</v>
       </c>
       <c r="H44" s="7">
-        <v>79</v>
-      </c>
-      <c r="I44" s="7">
-        <v>66587</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>803</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>804</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>120917</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>805</v>
+        <v>241</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>806</v>
+        <v>242</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>807</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9674,63 +10255,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>69</v>
+      </c>
+      <c r="D46" s="7">
+        <v>318468</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="H46" s="7">
+        <v>75</v>
+      </c>
+      <c r="I46" s="7">
+        <v>52162</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="M46" s="7">
+        <v>144</v>
+      </c>
+      <c r="N46" s="7">
+        <v>370630</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>42</v>
+      </c>
+      <c r="D47" s="7">
+        <v>47114</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="7">
+        <v>60</v>
+      </c>
+      <c r="I47" s="7">
+        <v>42588</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="M47" s="7">
+        <v>102</v>
+      </c>
+      <c r="N47" s="7">
+        <v>89702</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>148</v>
+      </c>
+      <c r="D48" s="7">
+        <v>150938</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="H48" s="7">
+        <v>174</v>
+      </c>
+      <c r="I48" s="7">
+        <v>113470</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="M48" s="7">
+        <v>322</v>
+      </c>
+      <c r="N48" s="7">
+        <v>264409</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>95</v>
+      </c>
+      <c r="D49" s="7">
+        <v>102200</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H49" s="7">
+        <v>123</v>
+      </c>
+      <c r="I49" s="7">
+        <v>86213</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="M49" s="7">
+        <v>218</v>
+      </c>
+      <c r="N49" s="7">
+        <v>188413</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>42</v>
+      </c>
+      <c r="D50" s="7">
+        <v>51403</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="H50" s="7">
+        <v>79</v>
+      </c>
+      <c r="I50" s="7">
+        <v>60572</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="M50" s="7">
+        <v>121</v>
+      </c>
+      <c r="N50" s="7">
+        <v>111975</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>396</v>
       </c>
-      <c r="D45" s="7">
-        <v>496914</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>670123</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>511</v>
       </c>
-      <c r="I45" s="7">
-        <v>387974</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>355005</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>907</v>
       </c>
-      <c r="N45" s="7">
-        <v>884888</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>293</v>
+      <c r="N51" s="7">
+        <v>1025129</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
